--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R0b1ad8bfcd6a418f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rb34e74e26d9d473b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rb34e74e26d9d473b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R63227c7a31864598"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R63227c7a31864598"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R2107202081ca4f2b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R2107202081ca4f2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R46b31814591f45d1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,7 +28,7 @@
     <x:font>
       <x:i/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -41,7 +41,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF00"/>
+        <x:fgColor rgb="FFFFFF00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R46b31814591f45d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rd2c13a1b6b4c45f1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rd2c13a1b6b4c45f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R1587fb4b65c2433f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R1587fb4b65c2433f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rf7d47f6e04a54596"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rf7d47f6e04a54596"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R309cc324f08e4347"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R309cc324f08e4347"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rcb245a18efff4b80"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rcb245a18efff4b80"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R957253169ac24ab7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R957253169ac24ab7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R057c5eb358fb4f31"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R057c5eb358fb4f31"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R2754e4e40b5040d8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R2754e4e40b5040d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rd97fc2fb164d490c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rd97fc2fb164d490c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R8bf673be18084fd2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R8bf673be18084fd2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rce888246d7964c80"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rce888246d7964c80"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rf81fdf96c4c74cb3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rf81fdf96c4c74cb3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R1cd8b8aa44074952"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R1cd8b8aa44074952"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R74a41bf9dfcb4d20"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R74a41bf9dfcb4d20"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rb2fab3694d424b89"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rb2fab3694d424b89"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R2499df1f0e094659"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R2499df1f0e094659"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Ra4c6c8b139294586"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Ra4c6c8b139294586"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R3644d5ea58c1400a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R3644d5ea58c1400a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R2bcf93747c044609"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R2bcf93747c044609"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rfa0cef4157b54a00"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rfa0cef4157b54a00"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rfce2623e397c4663"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rfce2623e397c4663"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Refbda41f926b4954"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Refbda41f926b4954"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R59b32bf2d2184b27"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R59b32bf2d2184b27"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rf207a884f86d4eea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rf207a884f86d4eea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rdac8f99e3d634663"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rdac8f99e3d634663"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R94b7d3fea3a44aad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R94b7d3fea3a44aad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R8566a59f83424f46"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R8566a59f83424f46"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R81adaa93c82d47f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R81adaa93c82d47f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rcd2d2749cfd74e72"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rcd2d2749cfd74e72"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Ra79cee43acc34257"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Ra79cee43acc34257"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R4ba5536c04e3464f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R4ba5536c04e3464f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R998b417293aa4a65"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R998b417293aa4a65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R5125df1ddbb34843"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R5125df1ddbb34843"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rcd9992c56b154770"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rcd9992c56b154770"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R17872a00b79e4901"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R17872a00b79e4901"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R62b37831dc62462e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R62b37831dc62462e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rd4613acbf0c044f1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="Rd4613acbf0c044f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R0f469da2cbb04b47"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R0f469da2cbb04b47"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R4668e927ff28401a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R4668e927ff28401a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R9301303c71034816"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/12_BulkUpdates.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R9301303c71034816"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BulkUpdates" sheetId="1" r:id="R968d6bb844ff42ad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
